--- a/data/epa_xls/lmopdatame.xlsx
+++ b/data/epa_xls/lmopdatame.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="21231"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="22228"/>
   <workbookPr backupFile="1" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="N:\LMOP\LFDatabase\Website\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{121237C4-69B0-4E76-9EEB-9E862977A4F8}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CE75C059-B441-44C3-A92C-1B11146E9169}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -36,7 +36,7 @@
     <author>Jeanette Alvis</author>
   </authors>
   <commentList>
-    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000001000000}">
+    <comment ref="A1" authorId="0" shapeId="0" xr:uid="{DF347E1C-2A1A-4EEB-98A9-0CA0D6036044}">
       <text>
         <r>
           <rPr>
@@ -50,7 +50,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000002000000}">
+    <comment ref="B1" authorId="0" shapeId="0" xr:uid="{F98ACC15-8980-406F-8788-BDBCF1EDAC07}">
       <text>
         <r>
           <rPr>
@@ -64,7 +64,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000003000000}">
+    <comment ref="C1" authorId="0" shapeId="0" xr:uid="{5969B59E-5E9F-404E-85F5-35195D31342D}">
       <text>
         <r>
           <rPr>
@@ -78,7 +78,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000004000000}">
+    <comment ref="D1" authorId="0" shapeId="0" xr:uid="{09F65ED7-3603-4FEC-8767-3EF0E043C939}">
       <text>
         <r>
           <rPr>
@@ -92,7 +92,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000005000000}">
+    <comment ref="E1" authorId="0" shapeId="0" xr:uid="{03B60685-A979-4B4C-BC49-6EFC7947542D}">
       <text>
         <r>
           <rPr>
@@ -106,7 +106,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000006000000}">
+    <comment ref="F1" authorId="0" shapeId="0" xr:uid="{BC56B900-B5A1-41DB-9617-B4D63BA53637}">
       <text>
         <r>
           <rPr>
@@ -120,7 +120,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000007000000}">
+    <comment ref="G1" authorId="0" shapeId="0" xr:uid="{D9718278-6784-4E84-8BAF-569EE4EC9479}">
       <text>
         <r>
           <rPr>
@@ -134,7 +134,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000008000000}">
+    <comment ref="H1" authorId="0" shapeId="0" xr:uid="{208C8C84-8D06-49D4-BDBB-BB105ED998F3}">
       <text>
         <r>
           <rPr>
@@ -148,7 +148,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000009000000}">
+    <comment ref="I1" authorId="0" shapeId="0" xr:uid="{029CE192-A18A-4554-91B8-BEE41B34FBC6}">
       <text>
         <r>
           <rPr>
@@ -161,7 +161,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000A000000}">
+    <comment ref="J1" authorId="0" shapeId="0" xr:uid="{89496EF5-81AB-4FA9-98D0-00460E3DAA42}">
       <text>
         <r>
           <rPr>
@@ -174,7 +174,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000B000000}">
+    <comment ref="K1" authorId="0" shapeId="0" xr:uid="{739ED9C8-8C88-4BF7-8B70-835EF7185CD5}">
       <text>
         <r>
           <rPr>
@@ -188,7 +188,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000C000000}">
+    <comment ref="L1" authorId="0" shapeId="0" xr:uid="{D0CE9FA5-0AD2-43C0-9FBF-04518C44ECDB}">
       <text>
         <r>
           <rPr>
@@ -202,7 +202,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000D000000}">
+    <comment ref="M1" authorId="0" shapeId="0" xr:uid="{76B175DE-1D3F-4794-804A-8F1241AE6757}">
       <text>
         <r>
           <rPr>
@@ -216,7 +216,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000E000000}">
+    <comment ref="N1" authorId="0" shapeId="0" xr:uid="{712B6778-2D56-4F9D-B8BD-253333860597}">
       <text>
         <r>
           <rPr>
@@ -230,7 +230,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00000F000000}">
+    <comment ref="O1" authorId="0" shapeId="0" xr:uid="{CC8FD4B1-A505-4633-9430-A4DAD8E9B2D3}">
       <text>
         <r>
           <rPr>
@@ -244,7 +244,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000010000000}">
+    <comment ref="P1" authorId="0" shapeId="0" xr:uid="{B31F9200-EEF2-4DB9-AC38-CB06AFDDE570}">
       <text>
         <r>
           <rPr>
@@ -258,7 +258,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000011000000}">
+    <comment ref="Q1" authorId="0" shapeId="0" xr:uid="{7874134D-221B-4DCF-B51A-E774A87C2353}">
       <text>
         <r>
           <rPr>
@@ -272,7 +272,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000012000000}">
+    <comment ref="R1" authorId="0" shapeId="0" xr:uid="{4FFDEC57-8ECC-4A40-81DD-CF55C5A55227}">
       <text>
         <r>
           <rPr>
@@ -286,7 +286,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000013000000}">
+    <comment ref="S1" authorId="0" shapeId="0" xr:uid="{A1376AEB-290F-47CF-BCCF-7F5242C40B46}">
       <text>
         <r>
           <rPr>
@@ -300,7 +300,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000014000000}">
+    <comment ref="T1" authorId="0" shapeId="0" xr:uid="{417B295A-91BE-44DF-9B76-B2458724252E}">
       <text>
         <r>
           <rPr>
@@ -314,7 +314,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000015000000}">
+    <comment ref="U1" authorId="0" shapeId="0" xr:uid="{B86F5620-A8B1-47ED-BA50-4BFA9CBD549D}">
       <text>
         <r>
           <rPr>
@@ -328,7 +328,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{DE5A1749-4F23-4174-879D-E9673B6B3590}">
+    <comment ref="V1" authorId="0" shapeId="0" xr:uid="{38B2B6A1-12FB-45DD-8926-5442B61A63D1}">
       <text>
         <r>
           <rPr>
@@ -342,7 +342,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-000017000000}">
+    <comment ref="W1" authorId="0" shapeId="0" xr:uid="{751DBC67-8372-4F54-939E-C29DF85D01F8}">
       <text>
         <r>
           <rPr>
@@ -356,7 +356,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{428EADDE-D395-4F71-8807-160B22CAAFC5}">
+    <comment ref="X1" authorId="0" shapeId="0" xr:uid="{15C16616-85D0-422F-BC9C-D6E82339D604}">
       <text>
         <r>
           <rPr>
@@ -370,7 +370,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{F86BD08E-0A42-4C0B-A7EB-F7E0D20DC5FF}">
+    <comment ref="Y1" authorId="0" shapeId="0" xr:uid="{168E3E96-CB55-4BE8-A0CD-15F403CC4B69}">
       <text>
         <r>
           <rPr>
@@ -384,7 +384,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{204BA802-93FB-490A-BE09-38A7AA7DF630}">
+    <comment ref="Z1" authorId="0" shapeId="0" xr:uid="{70DB956B-4C03-4C58-80F9-16AAC1C27525}">
       <text>
         <r>
           <rPr>
@@ -397,7 +397,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001A000000}">
+    <comment ref="AA1" authorId="0" shapeId="0" xr:uid="{B00F26B3-56B4-49B1-8ECD-BAFB55EA8A29}">
       <text>
         <r>
           <rPr>
@@ -411,7 +411,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{239418FE-F731-414A-98AD-86C8FA6753AF}">
+    <comment ref="AB1" authorId="1" shapeId="0" xr:uid="{0F9297A9-D4EF-4517-9CAE-FFB22FD0FA62}">
       <text>
         <r>
           <rPr>
@@ -425,7 +425,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001C000000}">
+    <comment ref="AC1" authorId="0" shapeId="0" xr:uid="{70589198-4BCB-4E96-ABE8-20E3983E5C80}">
       <text>
         <r>
           <rPr>
@@ -434,12 +434,26 @@
             <rFont val="Tahoma"/>
             <family val="2"/>
           </rPr>
-          <t xml:space="preserve">Capacity in megawatts for electricity-generating projects
+          <t xml:space="preserve">Actual or estimated electric generation in megawatts for electricity-generating projects
 </t>
         </r>
       </text>
     </comment>
-    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001D000000}">
+    <comment ref="AD1" authorId="0" shapeId="0" xr:uid="{12CBB59E-9962-483F-BA63-BAAE0C343C71}">
+      <text>
+        <r>
+          <rPr>
+            <sz val="10"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">Rated capacity in megawatts for electricity-generating projects
+</t>
+        </r>
+      </text>
+    </comment>
+    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{8951A5D4-3755-4990-9DE0-99FA788CA6CF}">
       <text>
         <r>
           <rPr>
@@ -453,7 +467,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AE1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001E000000}">
+    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{7F809149-BEEA-4B61-91B0-2CA91F38FDC3}">
       <text>
         <r>
           <rPr>
@@ -467,7 +481,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="AF1" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0100-00001F000000}">
+    <comment ref="AG1" authorId="0" shapeId="0" xr:uid="{7A7570AB-4048-4E2C-98C0-EA793CDBFDAA}">
       <text>
         <r>
           <rPr>
@@ -486,7 +500,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="176">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="407" uniqueCount="217">
   <si>
     <t>GHGRP ID</t>
   </si>
@@ -567,9 +581,6 @@
   </si>
   <si>
     <t>Project Type Category</t>
-  </si>
-  <si>
-    <t>MW Capacity</t>
   </si>
   <si>
     <t>LFG Flow to Project (mmscfd)</t>
@@ -717,9 +728,6 @@
     <t>Specific type of LFG energy project technology</t>
   </si>
   <si>
-    <t>Capacity in megawatts for electricity-generating projects</t>
-  </si>
-  <si>
     <t>Amount of landfill gas flowing to project or that will flow to the project when it becomes operational in million standard cubic feet per day</t>
   </si>
   <si>
@@ -1111,37 +1119,167 @@
     <t>Presque Isle</t>
   </si>
   <si>
+    <t>City of Presque Isle, ME</t>
+  </si>
+  <si>
+    <t>180345-0</t>
+  </si>
+  <si>
+    <t>Regional Waste Systems LF</t>
+  </si>
+  <si>
+    <t>64 Blueberry Road</t>
+  </si>
+  <si>
+    <t>Portland</t>
+  </si>
+  <si>
+    <t>Regional Waste Systems</t>
+  </si>
+  <si>
+    <t>180351-0</t>
+  </si>
+  <si>
+    <t>State of Maine</t>
+  </si>
+  <si>
+    <t>Candidate</t>
+  </si>
+  <si>
+    <t>Actual MW Generation</t>
+  </si>
+  <si>
+    <t>Rated MW Capacity</t>
+  </si>
+  <si>
+    <t>Actual or estimated electric generation in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>Rated capacity in megawatts for electricity-generating projects</t>
+  </si>
+  <si>
+    <t>180347-2</t>
+  </si>
+  <si>
+    <t>Project #1, De-Expansion #2</t>
+  </si>
+  <si>
+    <t>Shutdown</t>
+  </si>
+  <si>
+    <t>180347-1</t>
+  </si>
+  <si>
+    <t>Project #1, De-Expansion #1</t>
+  </si>
+  <si>
     <t>04769</t>
   </si>
   <si>
-    <t>City of Presque Isle, ME</t>
-  </si>
-  <si>
-    <t>180345-0</t>
-  </si>
-  <si>
-    <t>Regional Waste Systems LF</t>
-  </si>
-  <si>
-    <t>64 Blueberry Road</t>
-  </si>
-  <si>
-    <t>Portland</t>
-  </si>
-  <si>
     <t>04102</t>
   </si>
   <si>
-    <t>Regional Waste Systems</t>
-  </si>
-  <si>
-    <t>180351-0</t>
-  </si>
-  <si>
-    <t>State of Maine</t>
-  </si>
-  <si>
-    <t>Candidate</t>
+    <t>City of Lewiston Landfill</t>
+  </si>
+  <si>
+    <t>424 River Road</t>
+  </si>
+  <si>
+    <t>Lewiston</t>
+  </si>
+  <si>
+    <t>Androscoggin</t>
+  </si>
+  <si>
+    <t>201457-0</t>
+  </si>
+  <si>
+    <t>Dolby Landfill</t>
+  </si>
+  <si>
+    <t>Maine 157 (Main Street)</t>
+  </si>
+  <si>
+    <t>East Millinocket</t>
+  </si>
+  <si>
+    <t>201455-0</t>
+  </si>
+  <si>
+    <t>Rockland Quarry Landfill</t>
+  </si>
+  <si>
+    <t>400 Limerock Street</t>
+  </si>
+  <si>
+    <t>Rockland</t>
+  </si>
+  <si>
+    <t>Knox</t>
+  </si>
+  <si>
+    <t>201458-0</t>
+  </si>
+  <si>
+    <t>Town of Baileyville Landfill</t>
+  </si>
+  <si>
+    <t>50 Town Road</t>
+  </si>
+  <si>
+    <t>Baileyville</t>
+  </si>
+  <si>
+    <t>Washington</t>
+  </si>
+  <si>
+    <t>201453-0</t>
+  </si>
+  <si>
+    <t>Town of Dover-Foxcroft Landfill</t>
+  </si>
+  <si>
+    <t>66 Landfill Road
+Between Milo Road &amp; Essex Street</t>
+  </si>
+  <si>
+    <t>Dover-Foxcroft</t>
+  </si>
+  <si>
+    <t>Town of Dover-Foxcroft, ME</t>
+  </si>
+  <si>
+    <t>201454-0</t>
+  </si>
+  <si>
+    <t>Town of Glenburn MSW Landfill</t>
+  </si>
+  <si>
+    <t>Hudson Road (Route 221)</t>
+  </si>
+  <si>
+    <t>Glenburn</t>
+  </si>
+  <si>
+    <t>201456-0</t>
+  </si>
+  <si>
+    <t>Waldoboro Municipal Landfill</t>
+  </si>
+  <si>
+    <t>N. Nobleboro Road</t>
+  </si>
+  <si>
+    <t>Waldoboro</t>
+  </si>
+  <si>
+    <t>Lincoln</t>
+  </si>
+  <si>
+    <t>Town of Waldoboro, ME</t>
+  </si>
+  <si>
+    <t>201459-0</t>
   </si>
 </sst>
 </file>
@@ -1565,6 +1703,19 @@
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
@@ -1610,19 +1761,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="164" fontId="6" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="7" fillId="0" borderId="4" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2005,17 +2143,17 @@
   <sheetData>
     <row r="1" spans="1:4" ht="31.2" x14ac:dyDescent="0.25">
       <c r="A1" s="24" t="s">
+        <v>42</v>
+      </c>
+      <c r="B1" s="24" t="s">
         <v>43</v>
-      </c>
-      <c r="B1" s="24" t="s">
-        <v>44</v>
       </c>
       <c r="C1"/>
       <c r="D1"/>
     </row>
     <row r="2" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
       <c r="A2" s="25">
-        <v>12</v>
+        <v>19</v>
       </c>
       <c r="B2" s="25">
         <v>2</v>
@@ -2030,36 +2168,36 @@
       <c r="D3"/>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B4" s="54"/>
-      <c r="C4" s="55"/>
-      <c r="D4" s="55"/>
+      <c r="A4" s="58" t="s">
+        <v>73</v>
+      </c>
+      <c r="B4" s="59"/>
+      <c r="C4" s="60"/>
+      <c r="D4" s="60"/>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="54"/>
-      <c r="B5" s="54"/>
-      <c r="C5" s="55"/>
-      <c r="D5" s="55"/>
+      <c r="A5" s="59"/>
+      <c r="B5" s="59"/>
+      <c r="C5" s="60"/>
+      <c r="D5" s="60"/>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="54"/>
-      <c r="B6" s="54"/>
-      <c r="C6" s="55"/>
-      <c r="D6" s="55"/>
+      <c r="A6" s="59"/>
+      <c r="B6" s="59"/>
+      <c r="C6" s="60"/>
+      <c r="D6" s="60"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="54"/>
-      <c r="B7" s="54"/>
-      <c r="C7" s="55"/>
-      <c r="D7" s="55"/>
+      <c r="A7" s="59"/>
+      <c r="B7" s="59"/>
+      <c r="C7" s="60"/>
+      <c r="D7" s="60"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="54"/>
-      <c r="B8" s="54"/>
-      <c r="C8" s="55"/>
-      <c r="D8" s="55"/>
+      <c r="A8" s="59"/>
+      <c r="B8" s="59"/>
+      <c r="C8" s="60"/>
+      <c r="D8" s="60"/>
     </row>
     <row r="9" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A9"/>
@@ -2074,70 +2212,70 @@
       <c r="D10"/>
     </row>
     <row r="11" spans="1:4" ht="16.05" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B11" s="57"/>
-      <c r="C11" s="57"/>
-      <c r="D11" s="58"/>
+      <c r="A11" s="61" t="s">
+        <v>74</v>
+      </c>
+      <c r="B11" s="62"/>
+      <c r="C11" s="62"/>
+      <c r="D11" s="63"/>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="59" t="s">
-        <v>77</v>
-      </c>
-      <c r="B12" s="60"/>
-      <c r="C12" s="60" t="s">
-        <v>45</v>
-      </c>
-      <c r="D12" s="61"/>
+      <c r="A12" s="64" t="s">
+        <v>75</v>
+      </c>
+      <c r="B12" s="65"/>
+      <c r="C12" s="65" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="66"/>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="52"/>
-      <c r="B13" s="48"/>
-      <c r="C13" s="62"/>
-      <c r="D13" s="49"/>
+      <c r="A13" s="57"/>
+      <c r="B13" s="53"/>
+      <c r="C13" s="67"/>
+      <c r="D13" s="54"/>
     </row>
     <row r="14" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A14" s="26"/>
       <c r="B14" s="27"/>
-      <c r="C14" s="62"/>
-      <c r="D14" s="49"/>
+      <c r="C14" s="67"/>
+      <c r="D14" s="54"/>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A15" s="52" t="s">
-        <v>78</v>
-      </c>
-      <c r="B15" s="48"/>
-      <c r="C15" s="62"/>
-      <c r="D15" s="49"/>
+      <c r="A15" s="57" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" s="53"/>
+      <c r="C15" s="67"/>
+      <c r="D15" s="54"/>
     </row>
     <row r="16" spans="1:4" ht="11.4" x14ac:dyDescent="0.2">
-      <c r="A16" s="52"/>
-      <c r="B16" s="48"/>
+      <c r="A16" s="57"/>
+      <c r="B16" s="53"/>
       <c r="C16" s="28"/>
       <c r="D16" s="29"/>
     </row>
     <row r="17" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A17" s="26"/>
       <c r="B17" s="27"/>
-      <c r="C17" s="48" t="s">
-        <v>79</v>
-      </c>
-      <c r="D17" s="49"/>
+      <c r="C17" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="D17" s="54"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A18" s="52" t="s">
-        <v>80</v>
-      </c>
-      <c r="B18" s="48"/>
-      <c r="C18" s="62"/>
-      <c r="D18" s="49"/>
+      <c r="A18" s="57" t="s">
+        <v>78</v>
+      </c>
+      <c r="B18" s="53"/>
+      <c r="C18" s="67"/>
+      <c r="D18" s="54"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A19" s="52"/>
-      <c r="B19" s="48"/>
-      <c r="C19" s="62"/>
-      <c r="D19" s="49"/>
+      <c r="A19" s="57"/>
+      <c r="B19" s="53"/>
+      <c r="C19" s="67"/>
+      <c r="D19" s="54"/>
     </row>
     <row r="20" spans="1:4" ht="12.6" x14ac:dyDescent="0.2">
       <c r="A20" s="30"/>
@@ -2146,20 +2284,20 @@
       <c r="D20" s="33"/>
     </row>
     <row r="21" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A21" s="52" t="s">
-        <v>81</v>
-      </c>
-      <c r="B21" s="48"/>
-      <c r="C21" s="48" t="s">
-        <v>82</v>
-      </c>
-      <c r="D21" s="49"/>
+      <c r="A21" s="57" t="s">
+        <v>79</v>
+      </c>
+      <c r="B21" s="53"/>
+      <c r="C21" s="53" t="s">
+        <v>80</v>
+      </c>
+      <c r="D21" s="54"/>
     </row>
     <row r="22" spans="1:4" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A22" s="52"/>
-      <c r="B22" s="48"/>
-      <c r="C22" s="62"/>
-      <c r="D22" s="49"/>
+      <c r="A22" s="57"/>
+      <c r="B22" s="53"/>
+      <c r="C22" s="67"/>
+      <c r="D22" s="54"/>
     </row>
     <row r="23" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A23" s="34"/>
@@ -2170,16 +2308,16 @@
     <row r="24" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A24" s="26"/>
       <c r="B24" s="27"/>
-      <c r="C24" s="48" t="s">
-        <v>83</v>
-      </c>
-      <c r="D24" s="49"/>
+      <c r="C24" s="53" t="s">
+        <v>81</v>
+      </c>
+      <c r="D24" s="54"/>
     </row>
     <row r="25" spans="1:4" ht="12.6" x14ac:dyDescent="0.25">
       <c r="A25" s="37"/>
       <c r="B25" s="38"/>
-      <c r="C25" s="50"/>
-      <c r="D25" s="51"/>
+      <c r="C25" s="55"/>
+      <c r="D25" s="56"/>
     </row>
   </sheetData>
   <mergeCells count="10">
@@ -2201,14 +2339,14 @@
   <headerFooter alignWithMargins="0">
     <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Summary for 
 Current LMOP Landfill and LFG Energy Project Database - Maine</oddHeader>
-    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddFooter>
+    <oddFooter>&amp;L&amp;"Arial,Regular"&amp;8&amp;F&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
-  <dimension ref="A1:AF13"/>
+  <dimension ref="A1:AG22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="4" ySplit="1" topLeftCell="E2" activePane="bottomRight" state="frozen"/>
@@ -2243,13 +2381,13 @@
     <col min="25" max="25" width="9.6640625" style="17" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="9.44140625" customWidth="1"/>
     <col min="27" max="27" width="11.5546875" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="11.5546875" style="47" customWidth="1"/>
-    <col min="29" max="29" width="3.5546875" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="6.33203125" bestFit="1" customWidth="1"/>
-    <col min="31" max="32" width="14.33203125" style="67" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="7.77734375" style="47" bestFit="1" customWidth="1"/>
+    <col min="29" max="30" width="6.21875" bestFit="1" customWidth="1"/>
+    <col min="31" max="31" width="6.33203125" bestFit="1" customWidth="1"/>
+    <col min="32" max="33" width="14.33203125" style="52" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:32" s="3" customFormat="1" ht="84.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:33" s="3" customFormat="1" ht="84.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="20" t="s">
         <v>0</v>
       </c>
@@ -2332,45 +2470,48 @@
         <v>25</v>
       </c>
       <c r="AB1" s="21" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="AC1" s="20" t="s">
+        <v>172</v>
+      </c>
+      <c r="AD1" s="20" t="s">
+        <v>173</v>
+      </c>
+      <c r="AE1" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="AD1" s="20" t="s">
+      <c r="AF1" s="48" t="s">
         <v>28</v>
       </c>
-      <c r="AE1" s="63" t="s">
+      <c r="AG1" s="48" t="s">
         <v>29</v>
       </c>
-      <c r="AF1" s="63" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="2" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="B2" s="5">
         <v>2251</v>
       </c>
       <c r="C2" s="5" t="s">
+        <v>139</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>90</v>
+      </c>
+      <c r="E2" s="5" t="s">
+        <v>140</v>
+      </c>
+      <c r="F2" s="5" t="s">
         <v>141</v>
       </c>
-      <c r="D2" s="5" t="s">
-        <v>92</v>
-      </c>
-      <c r="E2" s="5" t="s">
+      <c r="G2" s="5" t="s">
         <v>142</v>
       </c>
-      <c r="F2" s="5" t="s">
+      <c r="H2" s="4" t="s">
         <v>143</v>
-      </c>
-      <c r="G2" s="5" t="s">
-        <v>144</v>
-      </c>
-      <c r="H2" s="4" t="s">
-        <v>145</v>
       </c>
       <c r="I2" s="5">
         <v>43.939599999999999</v>
@@ -2379,10 +2520,10 @@
         <v>-69.818899999999999</v>
       </c>
       <c r="K2" s="5" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L2" s="5" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="M2" s="5">
         <v>1945</v>
@@ -2391,7 +2532,7 @@
         <v>2015</v>
       </c>
       <c r="O2" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P2" s="6">
         <v>404500</v>
@@ -2400,7 +2541,7 @@
         <v>2009</v>
       </c>
       <c r="R2" s="5" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S2" s="5">
         <v>0.374</v>
@@ -2409,48 +2550,49 @@
         <v>0.374</v>
       </c>
       <c r="U2" s="5" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="V2" s="5" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W2" s="5"/>
       <c r="X2" s="7"/>
       <c r="Y2" s="7"/>
       <c r="Z2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA2" s="5" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB2" s="5"/>
       <c r="AC2" s="5"/>
       <c r="AD2" s="5"/>
-      <c r="AE2" s="64"/>
-      <c r="AF2" s="64"/>
-    </row>
-    <row r="3" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE2" s="5"/>
+      <c r="AF2" s="49"/>
+      <c r="AG2" s="49"/>
+    </row>
+    <row r="3" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A3" s="9"/>
       <c r="B3" s="10">
         <v>2255</v>
       </c>
       <c r="C3" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="F3" s="10" t="s">
         <v>120</v>
       </c>
-      <c r="D3" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E3" s="10" t="s">
+      <c r="G3" s="10" t="s">
         <v>121</v>
       </c>
-      <c r="F3" s="10" t="s">
+      <c r="H3" s="9" t="s">
         <v>122</v>
-      </c>
-      <c r="G3" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H3" s="9" t="s">
-        <v>124</v>
       </c>
       <c r="I3" s="10">
         <v>43.97</v>
@@ -2459,10 +2601,10 @@
         <v>-70.037000000000006</v>
       </c>
       <c r="K3" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L3" s="10" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="M3" s="10">
         <v>1984</v>
@@ -2471,7 +2613,7 @@
         <v>2028</v>
       </c>
       <c r="O3" s="10" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="P3" s="11">
         <v>316270</v>
@@ -2480,53 +2622,54 @@
         <v>2012</v>
       </c>
       <c r="R3" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S3" s="10"/>
       <c r="T3" s="10"/>
       <c r="U3" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="V3" s="10" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="W3" s="10"/>
       <c r="X3" s="12"/>
       <c r="Y3" s="12"/>
       <c r="Z3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA3" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB3" s="10"/>
       <c r="AC3" s="10"/>
       <c r="AD3" s="10"/>
-      <c r="AE3" s="65"/>
-      <c r="AF3" s="65"/>
-    </row>
-    <row r="4" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE3" s="10"/>
+      <c r="AF3" s="50"/>
+      <c r="AG3" s="50"/>
+    </row>
+    <row r="4" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="10">
         <v>2253</v>
       </c>
       <c r="C4" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="D4" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E4" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="F4" s="10" t="s">
         <v>149</v>
       </c>
-      <c r="D4" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E4" s="10" t="s">
+      <c r="G4" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="H4" s="9" t="s">
         <v>150</v>
-      </c>
-      <c r="F4" s="10" t="s">
-        <v>151</v>
-      </c>
-      <c r="G4" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H4" s="9" t="s">
-        <v>152</v>
       </c>
       <c r="I4" s="10">
         <v>45.369900000000001</v>
@@ -2535,10 +2678,10 @@
         <v>-70.025499999999994</v>
       </c>
       <c r="K4" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L4" s="10" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="M4" s="10">
         <v>1989</v>
@@ -2547,7 +2690,7 @@
         <v>2013</v>
       </c>
       <c r="O4" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P4" s="11">
         <v>13900</v>
@@ -2556,776 +2699,1479 @@
         <v>2005</v>
       </c>
       <c r="R4" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S4" s="10"/>
       <c r="T4" s="10"/>
       <c r="U4" s="10" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="V4" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W4" s="10"/>
       <c r="X4" s="12"/>
       <c r="Y4" s="12"/>
       <c r="Z4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA4" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB4" s="10"/>
       <c r="AC4" s="10"/>
       <c r="AD4" s="10"/>
-      <c r="AE4" s="65"/>
-      <c r="AF4" s="65"/>
-    </row>
-    <row r="5" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
-      <c r="A5" s="9" t="s">
+      <c r="AE4" s="10"/>
+      <c r="AF4" s="50"/>
+      <c r="AG4" s="50"/>
+    </row>
+    <row r="5" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A5" s="9"/>
+      <c r="B5" s="10">
+        <v>21210</v>
+      </c>
+      <c r="C5" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="D5" s="10" t="s">
         <v>90</v>
       </c>
-      <c r="B5" s="10">
-        <v>2250</v>
-      </c>
-      <c r="C5" s="10" t="s">
-        <v>91</v>
-      </c>
-      <c r="D5" s="10" t="s">
-        <v>92</v>
-      </c>
       <c r="E5" s="10" t="s">
-        <v>93</v>
+        <v>184</v>
       </c>
       <c r="F5" s="10" t="s">
-        <v>94</v>
+        <v>185</v>
       </c>
       <c r="G5" s="10" t="s">
-        <v>95</v>
-      </c>
-      <c r="H5" s="9" t="s">
-        <v>96</v>
+        <v>186</v>
+      </c>
+      <c r="H5" s="9">
+        <v>4240</v>
       </c>
       <c r="I5" s="10">
-        <v>44.688800000000001</v>
+        <v>44.049680000000002</v>
       </c>
       <c r="J5" s="10">
-        <v>-69.865200000000002</v>
+        <v>-70.184073999999995</v>
       </c>
       <c r="K5" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L5" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L5" s="10"/>
+      <c r="M5" s="10">
+        <v>1952</v>
+      </c>
+      <c r="N5" s="10">
+        <v>1994</v>
+      </c>
+      <c r="O5" s="10" t="s">
         <v>41</v>
       </c>
-      <c r="M5" s="10">
-        <v>1976</v>
-      </c>
-      <c r="N5" s="10">
-        <v>2025</v>
-      </c>
-      <c r="O5" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P5" s="11">
-        <v>8843798</v>
-      </c>
-      <c r="Q5" s="10">
-        <v>2017</v>
-      </c>
+      <c r="P5" s="11"/>
+      <c r="Q5" s="10"/>
       <c r="R5" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S5" s="10">
-        <v>1.3029999999999999</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="S5" s="10"/>
       <c r="T5" s="10"/>
       <c r="U5" s="10" t="s">
-        <v>97</v>
+        <v>187</v>
       </c>
       <c r="V5" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W5" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X5" s="12">
-        <v>39878</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="W5" s="10"/>
+      <c r="X5" s="12"/>
       <c r="Y5" s="12"/>
       <c r="Z5" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA5" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB5" s="10"/>
-      <c r="AC5" s="10">
-        <v>3.2</v>
-      </c>
+      <c r="AC5" s="10"/>
       <c r="AD5" s="10"/>
-      <c r="AE5" s="65">
-        <v>0.14457999999999999</v>
-      </c>
-      <c r="AF5" s="65">
-        <v>0.16900000000000001</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A6" s="9"/>
+      <c r="AE5" s="10"/>
+      <c r="AF5" s="50"/>
+      <c r="AG5" s="50"/>
+    </row>
+    <row r="6" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>88</v>
+      </c>
       <c r="B6" s="10">
-        <v>12001</v>
+        <v>2250</v>
       </c>
       <c r="C6" s="10" t="s">
-        <v>128</v>
+        <v>89</v>
       </c>
       <c r="D6" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="F6" s="10" t="s">
         <v>92</v>
       </c>
-      <c r="E6" s="10" t="s">
-        <v>129</v>
-      </c>
-      <c r="F6" s="10" t="s">
-        <v>130</v>
-      </c>
       <c r="G6" s="10" t="s">
-        <v>123</v>
+        <v>93</v>
       </c>
       <c r="H6" s="9" t="s">
-        <v>131</v>
+        <v>94</v>
       </c>
       <c r="I6" s="10">
-        <v>43.638869999999997</v>
+        <v>44.688800000000001</v>
       </c>
       <c r="J6" s="10">
-        <v>-70.369449000000003</v>
+        <v>-69.865200000000002</v>
       </c>
       <c r="K6" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>40</v>
+      </c>
+      <c r="M6" s="10">
+        <v>1976</v>
+      </c>
+      <c r="N6" s="10">
+        <v>2024</v>
+      </c>
+      <c r="O6" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L6" s="10" t="s">
-        <v>132</v>
-      </c>
-      <c r="M6" s="10">
-        <v>1977</v>
-      </c>
-      <c r="N6" s="10">
-        <v>2038</v>
-      </c>
-      <c r="O6" s="10" t="s">
+      <c r="P6" s="11">
+        <v>9319120</v>
+      </c>
+      <c r="Q6" s="10">
+        <v>2018</v>
+      </c>
+      <c r="R6" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P6" s="11">
-        <v>900000</v>
-      </c>
-      <c r="Q6" s="10">
-        <v>2010</v>
-      </c>
-      <c r="R6" s="10" t="s">
+      <c r="S6" s="10">
+        <v>1.294</v>
+      </c>
+      <c r="T6" s="10">
+        <v>0</v>
+      </c>
+      <c r="U6" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="V6" s="10" t="s">
         <v>33</v>
       </c>
-      <c r="S6" s="10"/>
-      <c r="T6" s="10">
-        <v>0.216</v>
-      </c>
-      <c r="U6" s="10" t="s">
-        <v>133</v>
-      </c>
-      <c r="V6" s="10" t="s">
-        <v>127</v>
-      </c>
-      <c r="W6" s="10"/>
-      <c r="X6" s="12"/>
+      <c r="W6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X6" s="12">
+        <v>39878</v>
+      </c>
       <c r="Y6" s="12"/>
       <c r="Z6" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA6" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AB6" s="10"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="10"/>
-      <c r="AE6" s="65"/>
-      <c r="AF6" s="65"/>
-    </row>
-    <row r="7" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AC6" s="10">
+        <v>2.6</v>
+      </c>
+      <c r="AD6" s="10">
+        <v>3.2</v>
+      </c>
+      <c r="AE6" s="10"/>
+      <c r="AF6" s="50">
+        <v>0.11747</v>
+      </c>
+      <c r="AG6" s="50">
+        <v>1.372E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A7" s="9"/>
       <c r="B7" s="10">
-        <v>2254</v>
+        <v>21207</v>
       </c>
       <c r="C7" s="10" t="s">
-        <v>106</v>
+        <v>188</v>
       </c>
       <c r="D7" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E7" s="10" t="s">
-        <v>107</v>
+        <v>189</v>
       </c>
       <c r="F7" s="10" t="s">
-        <v>108</v>
+        <v>190</v>
       </c>
       <c r="G7" s="10" t="s">
-        <v>109</v>
-      </c>
-      <c r="H7" s="9" t="s">
-        <v>110</v>
+        <v>100</v>
+      </c>
+      <c r="H7" s="9">
+        <v>4333</v>
       </c>
       <c r="I7" s="10">
-        <v>44.322800000000001</v>
+        <v>45.654964</v>
       </c>
       <c r="J7" s="10">
-        <v>-69.708699999999993</v>
+        <v>-68.596293000000003</v>
       </c>
       <c r="K7" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L7" s="10" t="s">
-        <v>111</v>
+        <v>170</v>
       </c>
       <c r="M7" s="10">
-        <v>1952</v>
+        <v>1975</v>
       </c>
       <c r="N7" s="10">
-        <v>2033</v>
+        <v>1993</v>
       </c>
       <c r="O7" s="10" t="s">
-        <v>32</v>
-      </c>
-      <c r="P7" s="11">
-        <v>1100000</v>
-      </c>
-      <c r="Q7" s="10">
-        <v>2017</v>
-      </c>
+        <v>41</v>
+      </c>
+      <c r="P7" s="11"/>
+      <c r="Q7" s="10"/>
       <c r="R7" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S7" s="10">
-        <v>0.22</v>
-      </c>
-      <c r="T7" s="10">
-        <v>0.22</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="S7" s="10"/>
+      <c r="T7" s="10"/>
       <c r="U7" s="10" t="s">
-        <v>112</v>
+        <v>191</v>
       </c>
       <c r="V7" s="10" t="s">
-        <v>113</v>
-      </c>
-      <c r="W7" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X7" s="12">
-        <v>43466</v>
-      </c>
+        <v>38</v>
+      </c>
+      <c r="W7" s="10"/>
+      <c r="X7" s="12"/>
       <c r="Y7" s="12"/>
       <c r="Z7" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA7" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB7" s="10"/>
-      <c r="AC7" s="10">
-        <v>0.55000000000000004</v>
-      </c>
+      <c r="AC7" s="10"/>
       <c r="AD7" s="10"/>
-      <c r="AE7" s="65"/>
-      <c r="AF7" s="65"/>
-    </row>
-    <row r="8" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A8" s="9" t="s">
-        <v>114</v>
-      </c>
+      <c r="AE7" s="10"/>
+      <c r="AF7" s="50"/>
+      <c r="AG7" s="50"/>
+    </row>
+    <row r="8" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
       <c r="B8" s="10">
-        <v>11240</v>
+        <v>12001</v>
       </c>
       <c r="C8" s="10" t="s">
-        <v>115</v>
+        <v>126</v>
       </c>
       <c r="D8" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E8" s="10" t="s">
-        <v>116</v>
+        <v>127</v>
       </c>
       <c r="F8" s="10" t="s">
-        <v>117</v>
+        <v>128</v>
       </c>
       <c r="G8" s="10" t="s">
-        <v>102</v>
+        <v>121</v>
       </c>
       <c r="H8" s="9" t="s">
-        <v>118</v>
+        <v>129</v>
       </c>
       <c r="I8" s="10">
-        <v>44.981299999999997</v>
+        <v>43.638869999999997</v>
       </c>
       <c r="J8" s="10">
-        <v>-68.724699999999999</v>
+        <v>-70.369449000000003</v>
       </c>
       <c r="K8" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>130</v>
+      </c>
+      <c r="M8" s="10">
+        <v>1977</v>
+      </c>
+      <c r="N8" s="10">
+        <v>2038</v>
+      </c>
+      <c r="O8" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L8" s="10" t="s">
-        <v>174</v>
-      </c>
-      <c r="M8" s="10">
-        <v>1997</v>
-      </c>
-      <c r="N8" s="10">
-        <v>2019</v>
-      </c>
-      <c r="O8" s="10" t="s">
+      <c r="P8" s="11">
+        <v>900000</v>
+      </c>
+      <c r="Q8" s="10">
+        <v>2010</v>
+      </c>
+      <c r="R8" s="10" t="s">
         <v>32</v>
       </c>
-      <c r="P8" s="11">
-        <v>8083666</v>
-      </c>
-      <c r="Q8" s="10">
-        <v>2017</v>
-      </c>
-      <c r="R8" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" s="10">
-        <v>3.597</v>
-      </c>
+      <c r="S8" s="10"/>
       <c r="T8" s="10">
-        <v>3.597</v>
+        <v>0.216</v>
       </c>
       <c r="U8" s="10" t="s">
-        <v>119</v>
+        <v>131</v>
       </c>
       <c r="V8" s="10" t="s">
-        <v>175</v>
+        <v>125</v>
       </c>
       <c r="W8" s="10"/>
       <c r="X8" s="12"/>
       <c r="Y8" s="12"/>
       <c r="Z8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA8" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB8" s="10"/>
       <c r="AC8" s="10"/>
-      <c r="AD8" s="10">
-        <v>2.5920000000000001</v>
-      </c>
-      <c r="AE8" s="65"/>
-      <c r="AF8" s="65"/>
-    </row>
-    <row r="9" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AD8" s="10"/>
+      <c r="AE8" s="10"/>
+      <c r="AF8" s="50"/>
+      <c r="AG8" s="50"/>
+    </row>
+    <row r="9" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
       <c r="A9" s="9"/>
       <c r="B9" s="10">
-        <v>2252</v>
+        <v>2254</v>
       </c>
       <c r="C9" s="10" t="s">
-        <v>155</v>
+        <v>104</v>
       </c>
       <c r="D9" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E9" s="10" t="s">
-        <v>156</v>
+        <v>105</v>
       </c>
       <c r="F9" s="10" t="s">
-        <v>157</v>
+        <v>106</v>
       </c>
       <c r="G9" s="10" t="s">
-        <v>158</v>
+        <v>107</v>
       </c>
       <c r="H9" s="9" t="s">
-        <v>159</v>
+        <v>108</v>
       </c>
       <c r="I9" s="10">
-        <v>45.456000000000003</v>
+        <v>44.322800000000001</v>
       </c>
       <c r="J9" s="10">
-        <v>-69.625799999999998</v>
+        <v>-69.708699999999993</v>
       </c>
       <c r="K9" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="M9" s="10">
+        <v>1952</v>
+      </c>
+      <c r="N9" s="10">
+        <v>2033</v>
+      </c>
+      <c r="O9" s="10" t="s">
         <v>31</v>
       </c>
-      <c r="L9" s="10" t="s">
-        <v>160</v>
-      </c>
-      <c r="M9" s="10">
-        <v>1986</v>
-      </c>
-      <c r="N9" s="10">
-        <v>2011</v>
-      </c>
-      <c r="O9" s="10" t="s">
-        <v>42</v>
-      </c>
       <c r="P9" s="11">
-        <v>85000</v>
+        <v>1100000</v>
       </c>
       <c r="Q9" s="10">
-        <v>2005</v>
+        <v>2017</v>
       </c>
       <c r="R9" s="10" t="s">
-        <v>38</v>
-      </c>
-      <c r="S9" s="10"/>
-      <c r="T9" s="10"/>
+        <v>32</v>
+      </c>
+      <c r="S9" s="10">
+        <v>0.22</v>
+      </c>
+      <c r="T9" s="10">
+        <v>0.22</v>
+      </c>
       <c r="U9" s="10" t="s">
-        <v>161</v>
+        <v>110</v>
       </c>
       <c r="V9" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="W9" s="10"/>
-      <c r="X9" s="12"/>
+        <v>111</v>
+      </c>
+      <c r="W9" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X9" s="12">
+        <v>43466</v>
+      </c>
       <c r="Y9" s="12"/>
       <c r="Z9" s="10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="AA9" s="10" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="AB9" s="10"/>
-      <c r="AC9" s="10"/>
+      <c r="AC9" s="10">
+        <v>0.55000000000000004</v>
+      </c>
       <c r="AD9" s="10"/>
-      <c r="AE9" s="65"/>
-      <c r="AF9" s="65"/>
-    </row>
-    <row r="10" spans="1:32" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="AE9" s="10"/>
+      <c r="AF9" s="50"/>
+      <c r="AG9" s="50"/>
+    </row>
+    <row r="10" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
-        <v>98</v>
+        <v>112</v>
       </c>
       <c r="B10" s="10">
-        <v>2259</v>
+        <v>11240</v>
       </c>
       <c r="C10" s="10" t="s">
-        <v>99</v>
+        <v>113</v>
       </c>
       <c r="D10" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E10" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="G10" s="10" t="s">
         <v>100</v>
       </c>
-      <c r="F10" s="10" t="s">
-        <v>101</v>
-      </c>
-      <c r="G10" s="10" t="s">
-        <v>102</v>
-      </c>
       <c r="H10" s="9" t="s">
-        <v>103</v>
+        <v>116</v>
       </c>
       <c r="I10" s="10">
-        <v>44.774700000000003</v>
+        <v>44.981299999999997</v>
       </c>
       <c r="J10" s="10">
-        <v>-68.866299999999995</v>
+        <v>-68.724699999999999</v>
       </c>
       <c r="K10" s="10" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="L10" s="10" t="s">
-        <v>104</v>
+        <v>170</v>
       </c>
       <c r="M10" s="10">
-        <v>1974</v>
+        <v>1997</v>
       </c>
       <c r="N10" s="10">
-        <v>2009</v>
+        <v>2030</v>
       </c>
       <c r="O10" s="10" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="P10" s="11">
-        <v>5787104</v>
+        <v>8819734</v>
       </c>
       <c r="Q10" s="10">
-        <v>2009</v>
+        <v>2018</v>
       </c>
       <c r="R10" s="10" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="S10" s="10">
-        <v>0.81299999999999994</v>
-      </c>
-      <c r="T10" s="10"/>
+        <v>2.4249999999999998</v>
+      </c>
+      <c r="T10" s="10">
+        <v>2.4249999999999998</v>
+      </c>
       <c r="U10" s="10" t="s">
-        <v>105</v>
+        <v>117</v>
       </c>
       <c r="V10" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="W10" s="10" t="s">
-        <v>35</v>
-      </c>
-      <c r="X10" s="12">
-        <v>39479</v>
-      </c>
+        <v>171</v>
+      </c>
+      <c r="W10" s="10"/>
+      <c r="X10" s="12"/>
       <c r="Y10" s="12"/>
       <c r="Z10" s="10" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="AA10" s="10" t="s">
-        <v>36</v>
+        <v>38</v>
       </c>
       <c r="AB10" s="10"/>
-      <c r="AC10" s="10">
-        <v>3.9</v>
-      </c>
+      <c r="AC10" s="10"/>
       <c r="AD10" s="10"/>
-      <c r="AE10" s="65">
-        <v>0.1762</v>
-      </c>
-      <c r="AF10" s="65">
-        <v>0.26</v>
-      </c>
-    </row>
-    <row r="11" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="AE10" s="10">
+        <v>2.5920000000000001</v>
+      </c>
+      <c r="AF10" s="50"/>
+      <c r="AG10" s="50"/>
+    </row>
+    <row r="11" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
       <c r="A11" s="9"/>
       <c r="B11" s="10">
-        <v>2257</v>
+        <v>2252</v>
       </c>
       <c r="C11" s="10" t="s">
-        <v>162</v>
+        <v>153</v>
       </c>
       <c r="D11" s="10" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="E11" s="10" t="s">
-        <v>163</v>
+        <v>154</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>164</v>
+        <v>155</v>
       </c>
       <c r="G11" s="10" t="s">
-        <v>137</v>
+        <v>156</v>
       </c>
       <c r="H11" s="9" t="s">
-        <v>165</v>
+        <v>157</v>
       </c>
       <c r="I11" s="10">
-        <v>46.601999999999997</v>
+        <v>45.456000000000003</v>
       </c>
       <c r="J11" s="10">
-        <v>-68.039000000000001</v>
+        <v>-69.625799999999998</v>
       </c>
       <c r="K11" s="10" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="L11" s="10" t="s">
-        <v>166</v>
+        <v>158</v>
       </c>
       <c r="M11" s="10">
-        <v>1982</v>
+        <v>1986</v>
       </c>
       <c r="N11" s="10">
-        <v>2017</v>
+        <v>2011</v>
       </c>
       <c r="O11" s="10" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="P11" s="11">
-        <v>330000</v>
+        <v>85000</v>
       </c>
       <c r="Q11" s="10">
         <v>2005</v>
       </c>
       <c r="R11" s="10" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="S11" s="10"/>
       <c r="T11" s="10"/>
       <c r="U11" s="10" t="s">
-        <v>167</v>
+        <v>159</v>
       </c>
       <c r="V11" s="10" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="W11" s="10"/>
       <c r="X11" s="12"/>
       <c r="Y11" s="12"/>
       <c r="Z11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AA11" s="10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="AB11" s="10"/>
       <c r="AC11" s="10"/>
       <c r="AD11" s="10"/>
-      <c r="AE11" s="65"/>
-      <c r="AF11" s="65"/>
-    </row>
-    <row r="12" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A12" s="9"/>
+      <c r="AE11" s="10"/>
+      <c r="AF11" s="50"/>
+      <c r="AG11" s="50"/>
+    </row>
+    <row r="12" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A12" s="9" t="s">
+        <v>96</v>
+      </c>
       <c r="B12" s="10">
+        <v>2259</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D12" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H12" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I12" s="10">
+        <v>44.774700000000003</v>
+      </c>
+      <c r="J12" s="10">
+        <v>-68.866299999999995</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M12" s="10">
+        <v>1974</v>
+      </c>
+      <c r="N12" s="10">
+        <v>2009</v>
+      </c>
+      <c r="O12" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P12" s="11">
+        <v>5787104</v>
+      </c>
+      <c r="Q12" s="10">
+        <v>2009</v>
+      </c>
+      <c r="R12" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S12" s="10">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="T12" s="10"/>
+      <c r="U12" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="V12" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="W12" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="X12" s="12">
+        <v>39479</v>
+      </c>
+      <c r="Y12" s="12">
+        <v>40908</v>
+      </c>
+      <c r="Z12" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA12" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB12" s="10"/>
+      <c r="AC12" s="10">
+        <v>2.4</v>
+      </c>
+      <c r="AD12" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AE12" s="10">
+        <v>1.3</v>
+      </c>
+      <c r="AF12" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG12" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B13" s="10">
+        <v>2259</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D13" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H13" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I13" s="10">
+        <v>44.774700000000003</v>
+      </c>
+      <c r="J13" s="10">
+        <v>-68.866299999999995</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M13" s="10">
+        <v>1974</v>
+      </c>
+      <c r="N13" s="10">
+        <v>2009</v>
+      </c>
+      <c r="O13" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P13" s="11">
+        <v>5787104</v>
+      </c>
+      <c r="Q13" s="10">
+        <v>2009</v>
+      </c>
+      <c r="R13" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S13" s="10">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="T13" s="10"/>
+      <c r="U13" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="V13" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="W13" s="10" t="s">
+        <v>180</v>
+      </c>
+      <c r="X13" s="12">
+        <v>40909</v>
+      </c>
+      <c r="Y13" s="12">
+        <v>42004</v>
+      </c>
+      <c r="Z13" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA13" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB13" s="10"/>
+      <c r="AC13" s="10">
+        <v>1.6</v>
+      </c>
+      <c r="AD13" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AE13" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AF13" s="50">
+        <v>0</v>
+      </c>
+      <c r="AG13" s="50">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A14" s="9" t="s">
+        <v>96</v>
+      </c>
+      <c r="B14" s="10">
+        <v>2259</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="D14" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H14" s="9" t="s">
+        <v>101</v>
+      </c>
+      <c r="I14" s="10">
+        <v>44.774700000000003</v>
+      </c>
+      <c r="J14" s="10">
+        <v>-68.866299999999995</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="M14" s="10">
+        <v>1974</v>
+      </c>
+      <c r="N14" s="10">
+        <v>2009</v>
+      </c>
+      <c r="O14" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P14" s="11">
+        <v>5787104</v>
+      </c>
+      <c r="Q14" s="10">
+        <v>2009</v>
+      </c>
+      <c r="R14" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S14" s="10">
+        <v>0.81299999999999994</v>
+      </c>
+      <c r="T14" s="10"/>
+      <c r="U14" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="V14" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="W14" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="X14" s="12">
+        <v>42005</v>
+      </c>
+      <c r="Y14" s="12"/>
+      <c r="Z14" s="10" t="s">
+        <v>36</v>
+      </c>
+      <c r="AA14" s="10" t="s">
+        <v>35</v>
+      </c>
+      <c r="AB14" s="10"/>
+      <c r="AC14" s="10">
+        <v>0.9</v>
+      </c>
+      <c r="AD14" s="10">
+        <v>3.9</v>
+      </c>
+      <c r="AE14" s="10">
+        <v>0.6</v>
+      </c>
+      <c r="AF14" s="50">
+        <v>4.0660000000000002E-2</v>
+      </c>
+      <c r="AG14" s="50">
+        <v>4.7499999999999999E-3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="10">
+        <v>2257</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="D15" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="H15" s="9" t="s">
+        <v>181</v>
+      </c>
+      <c r="I15" s="10">
+        <v>46.601999999999997</v>
+      </c>
+      <c r="J15" s="10">
+        <v>-68.039000000000001</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1982</v>
+      </c>
+      <c r="N15" s="10">
+        <v>2017</v>
+      </c>
+      <c r="O15" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P15" s="11">
+        <v>330000</v>
+      </c>
+      <c r="Q15" s="10">
+        <v>2005</v>
+      </c>
+      <c r="R15" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="S15" s="10"/>
+      <c r="T15" s="10"/>
+      <c r="U15" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="V15" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="W15" s="10"/>
+      <c r="X15" s="12"/>
+      <c r="Y15" s="12"/>
+      <c r="Z15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA15" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB15" s="10"/>
+      <c r="AC15" s="10"/>
+      <c r="AD15" s="10"/>
+      <c r="AE15" s="10"/>
+      <c r="AF15" s="50"/>
+      <c r="AG15" s="50"/>
+    </row>
+    <row r="16" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="10">
         <v>2263</v>
       </c>
-      <c r="C12" s="10" t="s">
+      <c r="C16" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="D16" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>121</v>
+      </c>
+      <c r="H16" s="9" t="s">
+        <v>182</v>
+      </c>
+      <c r="I16" s="10">
+        <v>43.653500000000001</v>
+      </c>
+      <c r="J16" s="10">
+        <v>-70.332400000000007</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>39</v>
+      </c>
+      <c r="L16" s="10" t="s">
         <v>168</v>
       </c>
-      <c r="D12" s="10" t="s">
-        <v>92</v>
-      </c>
-      <c r="E12" s="10" t="s">
+      <c r="M16" s="10">
+        <v>1986</v>
+      </c>
+      <c r="N16" s="10">
+        <v>1997</v>
+      </c>
+      <c r="O16" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P16" s="11">
+        <v>1675000</v>
+      </c>
+      <c r="Q16" s="10"/>
+      <c r="R16" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S16" s="10"/>
+      <c r="T16" s="10">
+        <v>0.72</v>
+      </c>
+      <c r="U16" s="10" t="s">
         <v>169</v>
       </c>
-      <c r="F12" s="10" t="s">
-        <v>170</v>
-      </c>
-      <c r="G12" s="10" t="s">
-        <v>123</v>
-      </c>
-      <c r="H12" s="9" t="s">
-        <v>171</v>
-      </c>
-      <c r="I12" s="10">
-        <v>43.653500000000001</v>
-      </c>
-      <c r="J12" s="10">
-        <v>-70.332400000000007</v>
-      </c>
-      <c r="K12" s="10" t="s">
-        <v>40</v>
-      </c>
-      <c r="L12" s="10" t="s">
-        <v>172</v>
-      </c>
-      <c r="M12" s="10">
-        <v>1986</v>
-      </c>
-      <c r="N12" s="10">
-        <v>1997</v>
-      </c>
-      <c r="O12" s="10" t="s">
-        <v>42</v>
-      </c>
-      <c r="P12" s="11">
-        <v>1675000</v>
-      </c>
-      <c r="Q12" s="10"/>
-      <c r="R12" s="10" t="s">
-        <v>33</v>
-      </c>
-      <c r="S12" s="10"/>
-      <c r="T12" s="10">
-        <v>0.72</v>
-      </c>
-      <c r="U12" s="10" t="s">
-        <v>173</v>
-      </c>
-      <c r="V12" s="10" t="s">
-        <v>148</v>
-      </c>
-      <c r="W12" s="10"/>
-      <c r="X12" s="12"/>
-      <c r="Y12" s="12"/>
-      <c r="Z12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA12" s="10" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB12" s="10"/>
-      <c r="AC12" s="10"/>
-      <c r="AD12" s="10"/>
-      <c r="AE12" s="65"/>
-      <c r="AF12" s="65"/>
-    </row>
-    <row r="13" spans="1:32" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
-      <c r="A13" s="13"/>
-      <c r="B13" s="14">
+      <c r="V16" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="W16" s="10"/>
+      <c r="X16" s="12"/>
+      <c r="Y16" s="12"/>
+      <c r="Z16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA16" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB16" s="10"/>
+      <c r="AC16" s="10"/>
+      <c r="AD16" s="10"/>
+      <c r="AE16" s="10"/>
+      <c r="AF16" s="50"/>
+      <c r="AG16" s="50"/>
+    </row>
+    <row r="17" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="10">
+        <v>21211</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>192</v>
+      </c>
+      <c r="D17" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>193</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>194</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>195</v>
+      </c>
+      <c r="H17" s="9">
+        <v>4841</v>
+      </c>
+      <c r="I17" s="10">
+        <v>44.105885999999998</v>
+      </c>
+      <c r="J17" s="10">
+        <v>-69.136345000000006</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L17" s="10"/>
+      <c r="M17" s="10"/>
+      <c r="N17" s="10">
+        <v>1995</v>
+      </c>
+      <c r="O17" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P17" s="11"/>
+      <c r="Q17" s="10"/>
+      <c r="R17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S17" s="10"/>
+      <c r="T17" s="10"/>
+      <c r="U17" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="V17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W17" s="10"/>
+      <c r="X17" s="12"/>
+      <c r="Y17" s="12"/>
+      <c r="Z17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA17" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB17" s="10"/>
+      <c r="AC17" s="10"/>
+      <c r="AD17" s="10"/>
+      <c r="AE17" s="10"/>
+      <c r="AF17" s="50"/>
+      <c r="AG17" s="50"/>
+    </row>
+    <row r="18" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="10">
+        <v>21208</v>
+      </c>
+      <c r="C18" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="D18" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F18" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="G18" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="H18" s="9">
+        <v>4694</v>
+      </c>
+      <c r="I18" s="10">
+        <v>45.132027999999998</v>
+      </c>
+      <c r="J18" s="10">
+        <v>-67.396867700000001</v>
+      </c>
+      <c r="K18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L18" s="10"/>
+      <c r="M18" s="10"/>
+      <c r="N18" s="10">
+        <v>1994</v>
+      </c>
+      <c r="O18" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P18" s="11"/>
+      <c r="Q18" s="10"/>
+      <c r="R18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S18" s="10"/>
+      <c r="T18" s="10"/>
+      <c r="U18" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="V18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W18" s="10"/>
+      <c r="X18" s="12"/>
+      <c r="Y18" s="12"/>
+      <c r="Z18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA18" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB18" s="10"/>
+      <c r="AC18" s="10"/>
+      <c r="AD18" s="10"/>
+      <c r="AE18" s="10"/>
+      <c r="AF18" s="50"/>
+      <c r="AG18" s="50"/>
+    </row>
+    <row r="19" spans="1:33" s="8" customFormat="1" ht="36" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="10">
+        <v>21206</v>
+      </c>
+      <c r="C19" s="10" t="s">
+        <v>202</v>
+      </c>
+      <c r="D19" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" s="10" t="s">
+        <v>203</v>
+      </c>
+      <c r="F19" s="10" t="s">
+        <v>204</v>
+      </c>
+      <c r="G19" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="H19" s="9">
+        <v>4426</v>
+      </c>
+      <c r="I19" s="10">
+        <v>45.190809999999999</v>
+      </c>
+      <c r="J19" s="10">
+        <v>-69.204260000000005</v>
+      </c>
+      <c r="K19" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L19" s="10" t="s">
+        <v>205</v>
+      </c>
+      <c r="M19" s="10">
+        <v>1978</v>
+      </c>
+      <c r="N19" s="10">
+        <v>1995</v>
+      </c>
+      <c r="O19" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P19" s="11"/>
+      <c r="Q19" s="10"/>
+      <c r="R19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S19" s="10"/>
+      <c r="T19" s="10"/>
+      <c r="U19" s="10" t="s">
+        <v>206</v>
+      </c>
+      <c r="V19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W19" s="10"/>
+      <c r="X19" s="12"/>
+      <c r="Y19" s="12"/>
+      <c r="Z19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA19" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB19" s="10"/>
+      <c r="AC19" s="10"/>
+      <c r="AD19" s="10"/>
+      <c r="AE19" s="10"/>
+      <c r="AF19" s="50"/>
+      <c r="AG19" s="50"/>
+    </row>
+    <row r="20" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="10">
+        <v>21209</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>207</v>
+      </c>
+      <c r="D20" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>208</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>209</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="H20" s="9">
+        <v>4401</v>
+      </c>
+      <c r="I20" s="10">
+        <v>44.944429999999997</v>
+      </c>
+      <c r="J20" s="10">
+        <v>-68.847449999999995</v>
+      </c>
+      <c r="K20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="L20" s="10"/>
+      <c r="M20" s="10"/>
+      <c r="N20" s="10"/>
+      <c r="O20" s="10" t="s">
+        <v>41</v>
+      </c>
+      <c r="P20" s="11"/>
+      <c r="Q20" s="10"/>
+      <c r="R20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="S20" s="10"/>
+      <c r="T20" s="10"/>
+      <c r="U20" s="10" t="s">
+        <v>210</v>
+      </c>
+      <c r="V20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="W20" s="10"/>
+      <c r="X20" s="12"/>
+      <c r="Y20" s="12"/>
+      <c r="Z20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA20" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB20" s="10"/>
+      <c r="AC20" s="10"/>
+      <c r="AD20" s="10"/>
+      <c r="AE20" s="10"/>
+      <c r="AF20" s="50"/>
+      <c r="AG20" s="50"/>
+    </row>
+    <row r="21" spans="1:33" s="8" customFormat="1" ht="12" x14ac:dyDescent="0.25">
+      <c r="A21" s="9"/>
+      <c r="B21" s="10">
         <v>2256</v>
       </c>
-      <c r="C13" s="14" t="s">
+      <c r="C21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D21" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F21" s="10" t="s">
         <v>134</v>
       </c>
-      <c r="D13" s="14" t="s">
-        <v>92</v>
-      </c>
-      <c r="E13" s="14" t="s">
+      <c r="G21" s="10" t="s">
         <v>135</v>
       </c>
-      <c r="F13" s="14" t="s">
+      <c r="H21" s="9" t="s">
         <v>136</v>
       </c>
-      <c r="G13" s="14" t="s">
+      <c r="I21" s="10">
+        <v>46.86</v>
+      </c>
+      <c r="J21" s="10">
+        <v>-67.908000000000001</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M21" s="10">
+        <v>1977</v>
+      </c>
+      <c r="N21" s="10">
+        <v>2023</v>
+      </c>
+      <c r="O21" s="10" t="s">
+        <v>31</v>
+      </c>
+      <c r="P21" s="11">
+        <v>734315</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>2008</v>
+      </c>
+      <c r="R21" s="10" t="s">
+        <v>32</v>
+      </c>
+      <c r="S21" s="10"/>
+      <c r="T21" s="10">
+        <v>0.11899999999999999</v>
+      </c>
+      <c r="U21" s="10" t="s">
         <v>137</v>
       </c>
-      <c r="H13" s="13" t="s">
-        <v>138</v>
-      </c>
-      <c r="I13" s="14">
-        <v>46.86</v>
-      </c>
-      <c r="J13" s="14">
-        <v>-67.908000000000001</v>
-      </c>
-      <c r="K13" s="14" t="s">
-        <v>31</v>
-      </c>
-      <c r="L13" s="14" t="s">
-        <v>134</v>
-      </c>
-      <c r="M13" s="14">
-        <v>1977</v>
-      </c>
-      <c r="N13" s="14">
-        <v>2023</v>
-      </c>
-      <c r="O13" s="14" t="s">
-        <v>32</v>
-      </c>
-      <c r="P13" s="15">
-        <v>734315</v>
-      </c>
-      <c r="Q13" s="14">
-        <v>2008</v>
-      </c>
-      <c r="R13" s="14" t="s">
-        <v>33</v>
-      </c>
-      <c r="S13" s="14"/>
-      <c r="T13" s="14">
-        <v>0.11899999999999999</v>
-      </c>
-      <c r="U13" s="14" t="s">
-        <v>139</v>
-      </c>
-      <c r="V13" s="14" t="s">
-        <v>127</v>
-      </c>
-      <c r="W13" s="14"/>
-      <c r="X13" s="16"/>
-      <c r="Y13" s="16"/>
-      <c r="Z13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AA13" s="14" t="s">
-        <v>39</v>
-      </c>
-      <c r="AB13" s="14"/>
-      <c r="AC13" s="14"/>
-      <c r="AD13" s="14"/>
-      <c r="AE13" s="66"/>
-      <c r="AF13" s="66"/>
+      <c r="V21" s="10" t="s">
+        <v>125</v>
+      </c>
+      <c r="W21" s="10"/>
+      <c r="X21" s="12"/>
+      <c r="Y21" s="12"/>
+      <c r="Z21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA21" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB21" s="10"/>
+      <c r="AC21" s="10"/>
+      <c r="AD21" s="10"/>
+      <c r="AE21" s="10"/>
+      <c r="AF21" s="50"/>
+      <c r="AG21" s="50"/>
+    </row>
+    <row r="22" spans="1:33" s="8" customFormat="1" ht="24" x14ac:dyDescent="0.25">
+      <c r="A22" s="13"/>
+      <c r="B22" s="14">
+        <v>21212</v>
+      </c>
+      <c r="C22" s="14" t="s">
+        <v>211</v>
+      </c>
+      <c r="D22" s="14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E22" s="14" t="s">
+        <v>212</v>
+      </c>
+      <c r="F22" s="14" t="s">
+        <v>213</v>
+      </c>
+      <c r="G22" s="14" t="s">
+        <v>214</v>
+      </c>
+      <c r="H22" s="13">
+        <v>4572</v>
+      </c>
+      <c r="I22" s="14">
+        <v>44.138506999999997</v>
+      </c>
+      <c r="J22" s="14">
+        <v>-69.434893000000002</v>
+      </c>
+      <c r="K22" s="14" t="s">
+        <v>30</v>
+      </c>
+      <c r="L22" s="14" t="s">
+        <v>215</v>
+      </c>
+      <c r="M22" s="14"/>
+      <c r="N22" s="14"/>
+      <c r="O22" s="14" t="s">
+        <v>41</v>
+      </c>
+      <c r="P22" s="15"/>
+      <c r="Q22" s="14"/>
+      <c r="R22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="S22" s="14"/>
+      <c r="T22" s="14"/>
+      <c r="U22" s="14" t="s">
+        <v>216</v>
+      </c>
+      <c r="V22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="W22" s="14"/>
+      <c r="X22" s="16"/>
+      <c r="Y22" s="16"/>
+      <c r="Z22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AA22" s="14" t="s">
+        <v>38</v>
+      </c>
+      <c r="AB22" s="14"/>
+      <c r="AC22" s="14"/>
+      <c r="AD22" s="14"/>
+      <c r="AE22" s="14"/>
+      <c r="AF22" s="51"/>
+      <c r="AG22" s="51"/>
     </row>
   </sheetData>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AF13">
-    <sortCondition ref="C2:C13"/>
-    <sortCondition ref="U2:U13"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:AG22">
+    <sortCondition ref="C2:C22"/>
+    <sortCondition ref="U2:U22"/>
   </sortState>
   <phoneticPr fontId="0" type="noConversion"/>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.8" bottom="0.9" header="0.4" footer="0.3"/>
   <pageSetup paperSize="5" pageOrder="overThenDown" orientation="landscape" r:id="rId1"/>
   <headerFooter alignWithMargins="0">
-    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Maine&amp;R&amp;"Arial,Regular"&amp;8 2/19/19</oddHeader>
+    <oddHeader>&amp;C&amp;"Arial,Bold"&amp;12Current LMOP Landfill and LFG Energy Project Database - Maine&amp;R&amp;"Arial,Regular"&amp;8 12/18/19</oddHeader>
     <oddFooter>&amp;C&amp;"Arial,Regular"&amp;8&amp;P</oddFooter>
   </headerFooter>
   <legacyDrawing r:id="rId2"/>
@@ -3337,7 +4183,7 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:B33"/>
+  <dimension ref="A1:B34"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
@@ -3355,10 +4201,10 @@
   <sheetData>
     <row r="1" spans="1:2" s="18" customFormat="1" ht="14.4" x14ac:dyDescent="0.3">
       <c r="A1" s="39" t="s">
+        <v>45</v>
+      </c>
+      <c r="B1" s="39" t="s">
         <v>46</v>
-      </c>
-      <c r="B1" s="39" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="2" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3366,7 +4212,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="41" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="3" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3374,7 +4220,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="43" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="4" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3382,7 +4228,7 @@
         <v>2</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="5" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3390,7 +4236,7 @@
         <v>3</v>
       </c>
       <c r="B5" s="45" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="6" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3398,7 +4244,7 @@
         <v>4</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="7" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3406,7 +4252,7 @@
         <v>5</v>
       </c>
       <c r="B7" s="45" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
     </row>
     <row r="8" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3414,7 +4260,7 @@
         <v>6</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="9" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3422,7 +4268,7 @@
         <v>7</v>
       </c>
       <c r="B9" s="45" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="10" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3430,7 +4276,7 @@
         <v>8</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
     <row r="11" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3438,7 +4284,7 @@
         <v>9</v>
       </c>
       <c r="B11" s="45" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
     </row>
     <row r="12" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3446,7 +4292,7 @@
         <v>10</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="13" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3454,7 +4300,7 @@
         <v>11</v>
       </c>
       <c r="B13" s="45" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="14" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3462,7 +4308,7 @@
         <v>12</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
     </row>
     <row r="15" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3470,7 +4316,7 @@
         <v>13</v>
       </c>
       <c r="B15" s="45" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="16" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3478,7 +4324,7 @@
         <v>14</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
     </row>
     <row r="17" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3486,7 +4332,7 @@
         <v>15</v>
       </c>
       <c r="B17" s="45" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="18" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3494,7 +4340,7 @@
         <v>16</v>
       </c>
       <c r="B18" s="45" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="19" spans="1:2" ht="24" x14ac:dyDescent="0.25">
@@ -3502,7 +4348,7 @@
         <v>17</v>
       </c>
       <c r="B19" s="45" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3510,7 +4356,7 @@
         <v>18</v>
       </c>
       <c r="B20" s="45" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
     </row>
     <row r="21" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3518,7 +4364,7 @@
         <v>19</v>
       </c>
       <c r="B21" s="45" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3526,7 +4372,7 @@
         <v>20</v>
       </c>
       <c r="B22" s="43" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="23" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3534,7 +4380,7 @@
         <v>21</v>
       </c>
       <c r="B23" s="45" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="24" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3542,7 +4388,7 @@
         <v>22</v>
       </c>
       <c r="B24" s="45" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="25" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3550,7 +4396,7 @@
         <v>23</v>
       </c>
       <c r="B25" s="45" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="26" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3558,7 +4404,7 @@
         <v>24</v>
       </c>
       <c r="B26" s="45" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
     <row r="27" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3566,7 +4412,7 @@
         <v>26</v>
       </c>
       <c r="B27" s="45" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:2" ht="12" x14ac:dyDescent="0.25">
@@ -3574,47 +4420,55 @@
         <v>25</v>
       </c>
       <c r="B28" s="45" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="29" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A29" s="45" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="B29" s="45" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
     <row r="30" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A30" s="45" t="s">
-        <v>27</v>
-      </c>
-      <c r="B30" s="45" t="s">
-        <v>71</v>
+      <c r="A30" s="44" t="s">
+        <v>172</v>
+      </c>
+      <c r="B30" s="44" t="s">
+        <v>174</v>
       </c>
     </row>
     <row r="31" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A31" s="45" t="s">
-        <v>28</v>
-      </c>
-      <c r="B31" s="45" t="s">
-        <v>72</v>
+      <c r="A31" s="44" t="s">
+        <v>173</v>
+      </c>
+      <c r="B31" s="44" t="s">
+        <v>175</v>
       </c>
     </row>
     <row r="32" spans="1:2" ht="12" x14ac:dyDescent="0.25">
       <c r="A32" s="45" t="s">
+        <v>27</v>
+      </c>
+      <c r="B32" s="45" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A33" s="45" t="s">
+        <v>28</v>
+      </c>
+      <c r="B33" s="45" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" ht="12" x14ac:dyDescent="0.25">
+      <c r="A34" s="46" t="s">
         <v>29</v>
       </c>
-      <c r="B32" s="45" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" ht="12" x14ac:dyDescent="0.25">
-      <c r="A33" s="46" t="s">
-        <v>30</v>
-      </c>
-      <c r="B33" s="46" t="s">
-        <v>74</v>
+      <c r="B34" s="46" t="s">
+        <v>72</v>
       </c>
     </row>
   </sheetData>
